--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H2">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I2">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J2">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>1.527279277266</v>
+        <v>0.654384749088889</v>
       </c>
       <c r="R2">
-        <v>13.745513495394</v>
+        <v>5.8894627418</v>
       </c>
       <c r="S2">
-        <v>0.4054990305037932</v>
+        <v>0.1341804369254123</v>
       </c>
       <c r="T2">
-        <v>0.4054990305037932</v>
+        <v>0.1341804369254123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H3">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I3">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J3">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +626,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>0.243981197676</v>
+        <v>0.09340944854999998</v>
       </c>
       <c r="R3">
-        <v>2.195830779084</v>
+        <v>0.8406850369499999</v>
       </c>
       <c r="S3">
-        <v>0.06477802756276207</v>
+        <v>0.01915344243100367</v>
       </c>
       <c r="T3">
-        <v>0.06477802756276209</v>
+        <v>0.01915344243100367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H4">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I4">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J4">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,152 +682,152 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>0.3717015896600001</v>
+        <v>0.1107880506944444</v>
       </c>
       <c r="R4">
-        <v>3.34531430694</v>
+        <v>0.9970924562499999</v>
       </c>
       <c r="S4">
-        <v>0.09868832536879742</v>
+        <v>0.02271689410395474</v>
       </c>
       <c r="T4">
-        <v>0.09868832536879742</v>
+        <v>0.02271689410395473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2777016666666667</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H5">
-        <v>0.833105</v>
+        <v>0.421025</v>
       </c>
       <c r="I5">
-        <v>0.4310346165646473</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J5">
-        <v>0.4310346165646473</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>1.157030386785</v>
+        <v>0.01130849759722222</v>
       </c>
       <c r="R5">
-        <v>10.413273481065</v>
+        <v>0.101776478375</v>
       </c>
       <c r="S5">
-        <v>0.3071964028377451</v>
+        <v>0.002318787457497941</v>
       </c>
       <c r="T5">
-        <v>0.3071964028377451</v>
+        <v>0.002318787457497941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2777016666666667</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H6">
-        <v>0.833105</v>
+        <v>0.421025</v>
       </c>
       <c r="I6">
-        <v>0.4310346165646473</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J6">
-        <v>0.4310346165646473</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>0.18483434151</v>
+        <v>0.0234679335</v>
       </c>
       <c r="R6">
-        <v>1.66350907359</v>
+        <v>0.2112114015</v>
       </c>
       <c r="S6">
-        <v>0.04907429008025377</v>
+        <v>0.00481205831149158</v>
       </c>
       <c r="T6">
-        <v>0.04907429008025377</v>
+        <v>0.004812058311491579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H7">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I7">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J7">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +868,896 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>0.2815922670166667</v>
+        <v>1.709222967290667</v>
       </c>
       <c r="R7">
-        <v>2.53433040315</v>
+        <v>15.383006705616</v>
       </c>
       <c r="S7">
-        <v>0.07476392364664843</v>
+        <v>0.3504731503497465</v>
       </c>
       <c r="T7">
-        <v>0.07476392364664841</v>
+        <v>0.3504731503497466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.366566</v>
+      </c>
+      <c r="H8">
+        <v>1.099698</v>
+      </c>
+      <c r="I8">
+        <v>0.4784619922885553</v>
+      </c>
+      <c r="J8">
+        <v>0.4784619922885552</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N8">
+        <v>1.996758</v>
+      </c>
+      <c r="O8">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P8">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q8">
+        <v>0.243981197676</v>
+      </c>
+      <c r="R8">
+        <v>2.195830779084</v>
+      </c>
+      <c r="S8">
+        <v>0.05002791362624518</v>
+      </c>
+      <c r="T8">
+        <v>0.05002791362624518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.366566</v>
+      </c>
+      <c r="H9">
+        <v>1.099698</v>
+      </c>
+      <c r="I9">
+        <v>0.4784619922885553</v>
+      </c>
+      <c r="J9">
+        <v>0.4784619922885552</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N9">
+        <v>2.36825</v>
+      </c>
+      <c r="O9">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P9">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q9">
+        <v>0.2893733098333333</v>
+      </c>
+      <c r="R9">
+        <v>2.6043597885</v>
+      </c>
+      <c r="S9">
+        <v>0.05933548604555742</v>
+      </c>
+      <c r="T9">
+        <v>0.05933548604555743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.366566</v>
+      </c>
+      <c r="H10">
+        <v>1.099698</v>
+      </c>
+      <c r="I10">
+        <v>0.4784619922885553</v>
+      </c>
+      <c r="J10">
+        <v>0.4784619922885552</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.241735</v>
+      </c>
+      <c r="O10">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P10">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q10">
+        <v>0.02953727733666667</v>
+      </c>
+      <c r="R10">
+        <v>0.26583549603</v>
+      </c>
+      <c r="S10">
+        <v>0.006056566544588968</v>
+      </c>
+      <c r="T10">
+        <v>0.00605656654458897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.366566</v>
+      </c>
+      <c r="H11">
+        <v>1.099698</v>
+      </c>
+      <c r="I11">
+        <v>0.4784619922885553</v>
+      </c>
+      <c r="J11">
+        <v>0.4784619922885552</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.16722</v>
+      </c>
+      <c r="N11">
+        <v>0.50166</v>
+      </c>
+      <c r="O11">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P11">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q11">
+        <v>0.06129716652</v>
+      </c>
+      <c r="R11">
+        <v>0.5516744986800001</v>
+      </c>
+      <c r="S11">
+        <v>0.01256887572241712</v>
+      </c>
+      <c r="T11">
+        <v>0.01256887572241712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.12712</v>
+      </c>
+      <c r="H12">
+        <v>0.38136</v>
+      </c>
+      <c r="I12">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J12">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N12">
+        <v>13.988392</v>
+      </c>
+      <c r="O12">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P12">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q12">
+        <v>0.5927347970133334</v>
+      </c>
+      <c r="R12">
+        <v>5.334613173120001</v>
+      </c>
+      <c r="S12">
+        <v>0.1215392231479727</v>
+      </c>
+      <c r="T12">
+        <v>0.1215392231479727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.12712</v>
+      </c>
+      <c r="H13">
+        <v>0.38136</v>
+      </c>
+      <c r="I13">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J13">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.996758</v>
+      </c>
+      <c r="O13">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P13">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q13">
+        <v>0.08460929232</v>
+      </c>
+      <c r="R13">
+        <v>0.76148363088</v>
+      </c>
+      <c r="S13">
+        <v>0.01734898594023528</v>
+      </c>
+      <c r="T13">
+        <v>0.01734898594023528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.12712</v>
+      </c>
+      <c r="H14">
+        <v>0.38136</v>
+      </c>
+      <c r="I14">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J14">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N14">
+        <v>2.36825</v>
+      </c>
+      <c r="O14">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P14">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q14">
+        <v>0.1003506466666667</v>
+      </c>
+      <c r="R14">
+        <v>0.9031558199999999</v>
+      </c>
+      <c r="S14">
+        <v>0.02057672284421157</v>
+      </c>
+      <c r="T14">
+        <v>0.02057672284421157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.12712</v>
+      </c>
+      <c r="H15">
+        <v>0.38136</v>
+      </c>
+      <c r="I15">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J15">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.241735</v>
+      </c>
+      <c r="O15">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P15">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q15">
+        <v>0.01024311773333333</v>
+      </c>
+      <c r="R15">
+        <v>0.09218805960000001</v>
+      </c>
+      <c r="S15">
+        <v>0.002100333198245745</v>
+      </c>
+      <c r="T15">
+        <v>0.002100333198245745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.12712</v>
+      </c>
+      <c r="H16">
+        <v>0.38136</v>
+      </c>
+      <c r="I16">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J16">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.16722</v>
+      </c>
+      <c r="N16">
+        <v>0.50166</v>
+      </c>
+      <c r="O16">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P16">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q16">
+        <v>0.0212570064</v>
+      </c>
+      <c r="R16">
+        <v>0.1913130576</v>
+      </c>
+      <c r="S16">
+        <v>0.004358711614916998</v>
+      </c>
+      <c r="T16">
+        <v>0.004358711614916998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.396319</v>
+      </c>
+      <c r="I17">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J17">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N17">
+        <v>13.988392</v>
+      </c>
+      <c r="O17">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P17">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q17">
+        <v>0.6159850587831112</v>
+      </c>
+      <c r="R17">
+        <v>5.543865529048</v>
+      </c>
+      <c r="S17">
+        <v>0.1263066482556676</v>
+      </c>
+      <c r="T17">
+        <v>0.1263066482556676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.396319</v>
+      </c>
+      <c r="I18">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J18">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.996758</v>
+      </c>
+      <c r="O18">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P18">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q18">
+        <v>0.08792812597799998</v>
+      </c>
+      <c r="R18">
+        <v>0.7913531338019999</v>
+      </c>
+      <c r="S18">
+        <v>0.01802950691957234</v>
+      </c>
+      <c r="T18">
+        <v>0.01802950691957234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.396319</v>
+      </c>
+      <c r="I19">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J19">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.36825</v>
+      </c>
+      <c r="O19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q19">
+        <v>0.1042869413055555</v>
+      </c>
+      <c r="R19">
+        <v>0.9385824717499999</v>
+      </c>
+      <c r="S19">
+        <v>0.02138385310702508</v>
+      </c>
+      <c r="T19">
+        <v>0.02138385310702508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.396319</v>
+      </c>
+      <c r="I20">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J20">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.241735</v>
+      </c>
+      <c r="O20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q20">
+        <v>0.01064490816277778</v>
+      </c>
+      <c r="R20">
+        <v>0.095804173465</v>
+      </c>
+      <c r="S20">
+        <v>0.002182719616099107</v>
+      </c>
+      <c r="T20">
+        <v>0.002182719616099107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.396319</v>
+      </c>
+      <c r="I21">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J21">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.16722</v>
+      </c>
+      <c r="N21">
+        <v>0.50166</v>
+      </c>
+      <c r="O21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q21">
+        <v>0.02209082106</v>
+      </c>
+      <c r="R21">
+        <v>0.19881738954</v>
+      </c>
+      <c r="S21">
+        <v>0.004529683838137952</v>
+      </c>
+      <c r="T21">
+        <v>0.004529683838137952</v>
       </c>
     </row>
   </sheetData>
